--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value378.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value378.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.350242403236182</v>
+        <v>1.319081783294678</v>
       </c>
       <c r="B1">
-        <v>2.207602233536525</v>
+        <v>3.692748546600342</v>
       </c>
       <c r="C1">
-        <v>2.370056623418041</v>
+        <v>3.097846746444702</v>
       </c>
       <c r="D1">
-        <v>2.224830738560714</v>
+        <v>2.03364109992981</v>
       </c>
       <c r="E1">
-        <v>0.7154740537464302</v>
+        <v>1.169101357460022</v>
       </c>
     </row>
   </sheetData>
